--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sun/Documents/do-neural-networks-learn-faus-iccvw-2015/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EEB23F-7FAD-8C4E-97A7-24459800E3EC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4AA23F-1265-F244-8115-9919269A8D6D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30140" yWindow="2160" windowWidth="16440" windowHeight="17440" xr2:uid="{1A905B66-08CA-5C47-AA61-0A594E9C9DCB}"/>
   </bookViews>
@@ -72,11 +72,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,7 +395,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection sqref="A1:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -657,7 +658,7 @@
         <v>0.83</v>
       </c>
       <c r="D8">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
         <v>0.72</v>
@@ -682,7 +683,7 @@
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>0.65300000000000002</v>
+        <v>0.72500000000000009</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -795,11 +796,11 @@
         <v>0.83</v>
       </c>
       <c r="K11">
-        <v>6.3E-2</v>
+        <v>0.63</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>0.74230000000000007</v>
+        <v>0.79900000000000015</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -845,98 +846,98 @@
       <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>AVERAGE(B3:B12)</f>
         <v>0.62999999999999989</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <f t="shared" ref="C13:E13" si="1">AVERAGE(C3:C12)</f>
         <v>0.81300000000000006</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>0.7330000000000001</v>
-      </c>
-      <c r="E13">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="E13" s="2">
         <f t="shared" si="1"/>
         <v>0.71800000000000008</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <f t="shared" ref="F13" si="2">AVERAGE(F3:F12)</f>
         <v>0.77900000000000003</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <f t="shared" ref="G13:H13" si="3">AVERAGE(G3:G12)</f>
         <v>0.81099999999999994</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <f t="shared" si="3"/>
         <v>0.82700000000000018</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <f t="shared" ref="I13" si="4">AVERAGE(I3:I12)</f>
         <v>0.83399999999999996</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="2">
         <f t="shared" ref="J13:K13" si="5">AVERAGE(J3:J12)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="2">
         <f t="shared" si="5"/>
-        <v>0.5413</v>
-      </c>
-      <c r="L13">
+        <v>0.59800000000000009</v>
+      </c>
+      <c r="L13" s="2">
         <f t="shared" ref="L13" si="6">AVERAGE(L3:L12)</f>
-        <v>0.72663000000000011</v>
+        <v>0.73950000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>STDEV(B3:B12)</f>
         <v>0.30800432897390717</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <f t="shared" ref="C14:E14" si="7">STDEV(C3:C12)</f>
         <v>0.11185804495977049</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <f t="shared" si="7"/>
-        <v>0.29859113628282136</v>
-      </c>
-      <c r="E14">
+        <v>0.19109334542748088</v>
+      </c>
+      <c r="E14" s="2">
         <f t="shared" si="7"/>
         <v>0.2712850079815608</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <f t="shared" ref="F14:L14" si="8">STDEV(F3:F12)</f>
         <v>0.21941589125068695</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <f t="shared" si="8"/>
         <v>7.2793467350366597E-2</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <f t="shared" si="8"/>
         <v>4.3728963196286982E-2</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <f t="shared" si="8"/>
         <v>5.4405882034941781E-2</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="2">
         <f t="shared" si="8"/>
         <v>0.32341923257592453</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="2">
         <f t="shared" si="8"/>
-        <v>0.33166450585560769</v>
-      </c>
-      <c r="L14">
+        <v>0.28615458137944316</v>
+      </c>
+      <c r="L14" s="2">
         <f t="shared" si="8"/>
-        <v>0.11010788699170315</v>
+        <v>0.10905172065482384</v>
       </c>
     </row>
   </sheetData>
